--- a/SPA/Proyectos/motor/caracteristicas.xlsx
+++ b/SPA/Proyectos/motor/caracteristicas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel0\Documents\ARI\SPA\Proyectos\motor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel\Documents\ARI\SPA\Proyectos\motor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A40388C-344E-44F6-8CF0-D81AFB60EA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0837A94-1FEF-43F4-8C4B-D413B1BC8612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{5311EBE8-E6A7-407A-BC35-8CB35E7A27C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5311EBE8-E6A7-407A-BC35-8CB35E7A27C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Referencia del motor (adajusa)</t>
   </si>
@@ -71,24 +71,6 @@
     <t>Motor 4</t>
   </si>
   <si>
-    <t>Motorseg SSY-132M-4 B5 4/6</t>
-  </si>
-  <si>
-    <t>Motorseg SS-112M1-4 B5 CR</t>
-  </si>
-  <si>
-    <t>A4075-E</t>
-  </si>
-  <si>
-    <t>A4055-E</t>
-  </si>
-  <si>
-    <t>A4030-E</t>
-  </si>
-  <si>
-    <t>A4040-E</t>
-  </si>
-  <si>
     <t>LSLV0075S100-4EOFNA</t>
   </si>
   <si>
@@ -98,9 +80,6 @@
     <t>LSLV0040S100-4EOFNA</t>
   </si>
   <si>
-    <t>Motorseg SS-90L1-2 B5 CR</t>
-  </si>
-  <si>
     <t>VFD037EL43A</t>
   </si>
   <si>
@@ -116,9 +95,6 @@
     <t>AX-FER2815-RE</t>
   </si>
   <si>
-    <t>AFUMEX RZ1KZ1-K (AS) 3 x 2,5 / 2,5</t>
-  </si>
-  <si>
     <t>A9F74316</t>
   </si>
   <si>
@@ -126,13 +102,37 @@
   </si>
   <si>
     <t>SSY-112M-2 B5 4/6</t>
+  </si>
+  <si>
+    <t>RZ1KZ1-K (AS) 3 x 2,5 / 2,5</t>
+  </si>
+  <si>
+    <t>SSY-132M-4 B5 4/6</t>
+  </si>
+  <si>
+    <t>SS-112M1-4 B5 CR</t>
+  </si>
+  <si>
+    <t>3G3MX2-A4055-E</t>
+  </si>
+  <si>
+    <t>3G3MX2-A4075-E</t>
+  </si>
+  <si>
+    <t>3G3MX2-A4040-E</t>
+  </si>
+  <si>
+    <t>3G3MX2-A4030-E</t>
+  </si>
+  <si>
+    <t>SS-90L1-2 B5 CR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,16 +146,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -163,12 +212,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,9 +275,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -227,7 +315,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -333,7 +421,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,7 +563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -483,153 +571,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C053A2-DB64-484B-BD58-DC16C030CCF0}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>